--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797156CB-6B4C-416A-AEDF-74BBC99A3ED6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E2CB89-56A8-47C0-BA92-0FF7E0730C7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1632,11 +1632,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1925,7 +1925,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1949,10 +1949,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1999,8 +1999,8 @@
       </c>
     </row>
     <row r="2" spans="1:24" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="3" t="s">
         <v>393</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="12" customFormat="1" ht="32.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>394</v>
       </c>
@@ -7297,20 +7297,13 @@
       </c>
     </row>
     <row r="117" spans="2:5" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A32:A43"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A25:A31"/>
-    <mergeCell ref="A3:A12"/>
     <mergeCell ref="A108:A112"/>
     <mergeCell ref="B117:E117"/>
     <mergeCell ref="A44:A54"/>
@@ -7319,6 +7312,13 @@
     <mergeCell ref="A70:A83"/>
     <mergeCell ref="A84:A96"/>
     <mergeCell ref="A97:A107"/>
+    <mergeCell ref="A32:A43"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD2056A-9AD7-4F88-91EB-3220BDBB2AA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06440FF-AB36-4394-ABE9-FD39B2FD4EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15189" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparison" sheetId="2" r:id="rId1"/>
@@ -1716,8 +1716,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1731,14 +1739,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2023,37 +2023,37 @@
   <dimension ref="A1:X119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.2109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.35546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="4" customWidth="1"/>
-    <col min="10" max="10" width="22.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="22.35546875" style="4" customWidth="1"/>
     <col min="11" max="11" width="21.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="18.25" style="4" customWidth="1"/>
-    <col min="14" max="14" width="18.875" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.2109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" style="4" customWidth="1"/>
     <col min="15" max="15" width="22" style="4" customWidth="1"/>
-    <col min="16" max="16" width="23.75" style="4" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:24" s="9" customFormat="1" ht="22.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2099,9 +2099,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" ht="27.75" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
+    <row r="2" spans="1:24" s="9" customFormat="1" ht="26.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="3" t="s">
         <v>393</v>
       </c>
@@ -2145,8 +2145,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:24" s="12" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A3" s="22" t="s">
         <v>459</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -2178,9 +2178,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="23" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22" t="s">
+    <row r="4" spans="1:24" s="17" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A4" s="24"/>
+      <c r="B4" s="16" t="s">
         <v>465</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -2209,10 +2209,10 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
-      <c r="R4" s="24"/>
-    </row>
-    <row r="5" spans="1:24" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="18" t="s">
+      <c r="R4" s="18"/>
+    </row>
+    <row r="5" spans="1:24" s="12" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.95">
+      <c r="A5" s="22" t="s">
         <v>458</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2240,8 +2240,8 @@
       <c r="P5" s="11"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="1:24" s="12" customFormat="1" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="19"/>
+    <row r="6" spans="1:24" s="12" customFormat="1" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A6" s="23"/>
       <c r="B6" s="14" t="s">
         <v>398</v>
       </c>
@@ -2297,8 +2297,8 @@
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" s="12" customFormat="1" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="19"/>
+    <row r="7" spans="1:24" s="12" customFormat="1" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A7" s="23"/>
       <c r="B7" s="14" t="s">
         <v>406</v>
       </c>
@@ -2354,8 +2354,8 @@
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="1:24" s="12" customFormat="1" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="19"/>
+    <row r="8" spans="1:24" s="12" customFormat="1" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A8" s="23"/>
       <c r="B8" s="14" t="s">
         <v>414</v>
       </c>
@@ -2409,8 +2409,8 @@
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" s="12" customFormat="1" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="19"/>
+    <row r="9" spans="1:24" s="12" customFormat="1" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A9" s="23"/>
       <c r="B9" s="14" t="s">
         <v>421</v>
       </c>
@@ -2457,8 +2457,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="12" customFormat="1" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:24" s="12" customFormat="1" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A10" s="23"/>
       <c r="B10" s="14" t="s">
         <v>426</v>
       </c>
@@ -2505,8 +2505,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="12" customFormat="1" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="19"/>
+    <row r="11" spans="1:24" s="12" customFormat="1" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A11" s="23"/>
       <c r="B11" s="7" t="s">
         <v>433</v>
       </c>
@@ -2553,8 +2553,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="12" customFormat="1" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="19"/>
+    <row r="12" spans="1:24" s="12" customFormat="1" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A12" s="23"/>
       <c r="B12" s="7" t="s">
         <v>439</v>
       </c>
@@ -2599,8 +2599,8 @@
       </c>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:24" s="12" customFormat="1" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:24" s="12" customFormat="1" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A13" s="23"/>
       <c r="B13" s="14" t="s">
         <v>443</v>
       </c>
@@ -2647,8 +2647,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="12" customFormat="1" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="20"/>
+    <row r="14" spans="1:24" s="12" customFormat="1" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A14" s="24"/>
       <c r="B14" s="14" t="s">
         <v>449</v>
       </c>
@@ -2667,8 +2667,8 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:24" s="9" customFormat="1" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:24" s="9" customFormat="1" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A15" s="19" t="s">
         <v>453</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2717,8 +2717,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:24" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A16" s="19"/>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,8 +2765,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A17" s="19"/>
       <c r="B17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2813,8 +2813,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A18" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2863,8 +2863,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A19" s="19"/>
       <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
@@ -2911,8 +2911,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A20" s="19"/>
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
@@ -2959,8 +2959,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A21" s="19"/>
       <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
@@ -3007,8 +3007,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A22" s="19"/>
       <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
@@ -3055,8 +3055,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="16"/>
+    <row r="23" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A23" s="19"/>
       <c r="B23" s="1" t="s">
         <v>73</v>
       </c>
@@ -3103,8 +3103,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A24" s="19"/>
       <c r="B24" s="1" t="s">
         <v>454</v>
       </c>
@@ -3129,8 +3129,8 @@
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A25" s="19"/>
       <c r="B25" s="1" t="s">
         <v>80</v>
       </c>
@@ -3177,8 +3177,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A26" s="19"/>
       <c r="B26" s="1" t="s">
         <v>87</v>
       </c>
@@ -3225,8 +3225,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A27" s="19" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3275,8 +3275,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="16"/>
+    <row r="28" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A28" s="19"/>
       <c r="B28" s="1" t="s">
         <v>100</v>
       </c>
@@ -3323,8 +3323,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A29" s="19"/>
       <c r="B29" s="1" t="s">
         <v>105</v>
       </c>
@@ -3371,8 +3371,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="16"/>
+    <row r="30" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A30" s="19"/>
       <c r="B30" s="1" t="s">
         <v>110</v>
       </c>
@@ -3419,8 +3419,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A31" s="19"/>
       <c r="B31" s="1" t="s">
         <v>112</v>
       </c>
@@ -3467,8 +3467,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A32" s="19"/>
       <c r="B32" s="1" t="s">
         <v>117</v>
       </c>
@@ -3515,8 +3515,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A33" s="19"/>
       <c r="B33" s="1" t="s">
         <v>121</v>
       </c>
@@ -3563,8 +3563,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A34" s="19" t="s">
         <v>127</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3613,8 +3613,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="16"/>
+    <row r="35" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A35" s="19"/>
       <c r="B35" s="1" t="s">
         <v>136</v>
       </c>
@@ -3661,8 +3661,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="16"/>
+    <row r="36" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A36" s="19"/>
       <c r="B36" s="1" t="s">
         <v>139</v>
       </c>
@@ -3709,8 +3709,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="16"/>
+    <row r="37" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A37" s="19"/>
       <c r="B37" s="1" t="s">
         <v>145</v>
       </c>
@@ -3757,8 +3757,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="16"/>
+    <row r="38" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A38" s="19"/>
       <c r="B38" s="1" t="s">
         <v>152</v>
       </c>
@@ -3805,8 +3805,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="16"/>
+    <row r="39" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A39" s="19"/>
       <c r="B39" s="1" t="s">
         <v>158</v>
       </c>
@@ -3853,8 +3853,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="16"/>
+    <row r="40" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A40" s="19"/>
       <c r="B40" s="1" t="s">
         <v>162</v>
       </c>
@@ -3901,8 +3901,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="16"/>
+    <row r="41" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A41" s="19"/>
       <c r="B41" s="1" t="s">
         <v>166</v>
       </c>
@@ -3949,8 +3949,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="16"/>
+    <row r="42" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A42" s="19"/>
       <c r="B42" s="1" t="s">
         <v>172</v>
       </c>
@@ -3997,8 +3997,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="16"/>
+    <row r="43" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A43" s="19"/>
       <c r="B43" s="1" t="s">
         <v>176</v>
       </c>
@@ -4045,8 +4045,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="16"/>
+    <row r="44" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A44" s="19"/>
       <c r="B44" s="1" t="s">
         <v>180</v>
       </c>
@@ -4091,8 +4091,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="16"/>
+    <row r="45" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A45" s="19"/>
       <c r="B45" s="1" t="s">
         <v>183</v>
       </c>
@@ -4137,8 +4137,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="16" t="s">
+    <row r="46" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A46" s="19" t="s">
         <v>184</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4187,8 +4187,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="16"/>
+    <row r="47" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A47" s="19"/>
       <c r="B47" s="1" t="s">
         <v>193</v>
       </c>
@@ -4235,8 +4235,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="16"/>
+    <row r="48" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A48" s="19"/>
       <c r="B48" s="1" t="s">
         <v>197</v>
       </c>
@@ -4283,8 +4283,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="16"/>
+    <row r="49" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A49" s="19"/>
       <c r="B49" s="1" t="s">
         <v>201</v>
       </c>
@@ -4331,8 +4331,8 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="16"/>
+    <row r="50" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A50" s="19"/>
       <c r="B50" s="1" t="s">
         <v>204</v>
       </c>
@@ -4379,8 +4379,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="16"/>
+    <row r="51" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A51" s="19"/>
       <c r="B51" s="1" t="s">
         <v>206</v>
       </c>
@@ -4427,8 +4427,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="16"/>
+    <row r="52" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A52" s="19"/>
       <c r="B52" s="1" t="s">
         <v>210</v>
       </c>
@@ -4475,8 +4475,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="16"/>
+    <row r="53" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A53" s="19"/>
       <c r="B53" s="1" t="s">
         <v>215</v>
       </c>
@@ -4523,8 +4523,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="16"/>
+    <row r="54" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A54" s="19"/>
       <c r="B54" s="1" t="s">
         <v>216</v>
       </c>
@@ -4571,8 +4571,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="16"/>
+    <row r="55" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A55" s="19"/>
       <c r="B55" s="1" t="s">
         <v>220</v>
       </c>
@@ -4619,8 +4619,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="16"/>
+    <row r="56" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A56" s="19"/>
       <c r="B56" s="1" t="s">
         <v>221</v>
       </c>
@@ -4667,8 +4667,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="16" t="s">
+    <row r="57" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A57" s="19" t="s">
         <v>225</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -4717,8 +4717,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="16"/>
+    <row r="58" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A58" s="19"/>
       <c r="B58" s="1" t="s">
         <v>229</v>
       </c>
@@ -4765,8 +4765,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="16"/>
+    <row r="59" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A59" s="19"/>
       <c r="B59" s="1" t="s">
         <v>231</v>
       </c>
@@ -4813,8 +4813,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="16" t="s">
+    <row r="60" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A60" s="19" t="s">
         <v>233</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -4863,8 +4863,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="16"/>
+    <row r="61" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A61" s="19"/>
       <c r="B61" s="1" t="s">
         <v>239</v>
       </c>
@@ -4911,8 +4911,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="16"/>
+    <row r="62" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A62" s="19"/>
       <c r="B62" s="1" t="s">
         <v>244</v>
       </c>
@@ -4959,8 +4959,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="16"/>
+    <row r="63" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A63" s="19"/>
       <c r="B63" s="1" t="s">
         <v>246</v>
       </c>
@@ -5007,8 +5007,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="16"/>
+    <row r="64" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A64" s="19"/>
       <c r="B64" s="1" t="s">
         <v>250</v>
       </c>
@@ -5055,8 +5055,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="16"/>
+    <row r="65" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A65" s="19"/>
       <c r="B65" s="1" t="s">
         <v>253</v>
       </c>
@@ -5103,8 +5103,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="16"/>
+    <row r="66" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A66" s="19"/>
       <c r="B66" s="1" t="s">
         <v>258</v>
       </c>
@@ -5151,8 +5151,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="16"/>
+    <row r="67" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A67" s="19"/>
       <c r="B67" s="1" t="s">
         <v>261</v>
       </c>
@@ -5199,8 +5199,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="16"/>
+    <row r="68" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A68" s="19"/>
       <c r="B68" s="1" t="s">
         <v>265</v>
       </c>
@@ -5247,8 +5247,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="16"/>
+    <row r="69" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A69" s="19"/>
       <c r="B69" s="6" t="s">
         <v>268</v>
       </c>
@@ -5295,8 +5295,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="16"/>
+    <row r="70" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A70" s="19"/>
       <c r="B70" s="6" t="s">
         <v>271</v>
       </c>
@@ -5343,8 +5343,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="16"/>
+    <row r="71" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A71" s="19"/>
       <c r="B71" s="6" t="s">
         <v>274</v>
       </c>
@@ -5391,8 +5391,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="16" t="s">
+    <row r="72" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A72" s="19" t="s">
         <v>277</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -5441,8 +5441,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="16"/>
+    <row r="73" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A73" s="19"/>
       <c r="B73" s="1" t="s">
         <v>281</v>
       </c>
@@ -5489,8 +5489,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="16"/>
+    <row r="74" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A74" s="19"/>
       <c r="B74" s="1" t="s">
         <v>284</v>
       </c>
@@ -5537,8 +5537,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="16"/>
+    <row r="75" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A75" s="19"/>
       <c r="B75" s="1" t="s">
         <v>288</v>
       </c>
@@ -5585,8 +5585,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="16"/>
+    <row r="76" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A76" s="19"/>
       <c r="B76" s="1" t="s">
         <v>290</v>
       </c>
@@ -5633,8 +5633,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="16"/>
+    <row r="77" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A77" s="19"/>
       <c r="B77" s="1" t="s">
         <v>293</v>
       </c>
@@ -5681,8 +5681,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="16"/>
+    <row r="78" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A78" s="19"/>
       <c r="B78" s="1" t="s">
         <v>297</v>
       </c>
@@ -5729,8 +5729,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="16"/>
+    <row r="79" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A79" s="19"/>
       <c r="B79" s="1" t="s">
         <v>301</v>
       </c>
@@ -5777,8 +5777,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="16"/>
+    <row r="80" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A80" s="19"/>
       <c r="B80" s="1" t="s">
         <v>304</v>
       </c>
@@ -5825,8 +5825,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="16"/>
+    <row r="81" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A81" s="19"/>
       <c r="B81" s="1" t="s">
         <v>306</v>
       </c>
@@ -5873,8 +5873,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="16"/>
+    <row r="82" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A82" s="19"/>
       <c r="B82" s="1" t="s">
         <v>308</v>
       </c>
@@ -5921,8 +5921,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="16"/>
+    <row r="83" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A83" s="19"/>
       <c r="B83" s="1" t="s">
         <v>310</v>
       </c>
@@ -5969,8 +5969,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="16"/>
+    <row r="84" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A84" s="19"/>
       <c r="B84" s="1" t="s">
         <v>314</v>
       </c>
@@ -6017,8 +6017,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="16"/>
+    <row r="85" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A85" s="19"/>
       <c r="B85" s="1" t="s">
         <v>317</v>
       </c>
@@ -6065,8 +6065,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="16" t="s">
+    <row r="86" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A86" s="19" t="s">
         <v>319</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -6115,8 +6115,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="16"/>
+    <row r="87" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A87" s="19"/>
       <c r="B87" s="1" t="s">
         <v>323</v>
       </c>
@@ -6163,8 +6163,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="16"/>
+    <row r="88" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A88" s="19"/>
       <c r="B88" s="1" t="s">
         <v>325</v>
       </c>
@@ -6211,8 +6211,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="16"/>
+    <row r="89" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A89" s="19"/>
       <c r="B89" s="1" t="s">
         <v>328</v>
       </c>
@@ -6259,8 +6259,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="16"/>
+    <row r="90" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A90" s="19"/>
       <c r="B90" s="1" t="s">
         <v>331</v>
       </c>
@@ -6307,8 +6307,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="16"/>
+    <row r="91" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A91" s="19"/>
       <c r="B91" s="1" t="s">
         <v>333</v>
       </c>
@@ -6355,8 +6355,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="16"/>
+    <row r="92" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A92" s="19"/>
       <c r="B92" s="1" t="s">
         <v>335</v>
       </c>
@@ -6403,8 +6403,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="16"/>
+    <row r="93" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A93" s="19"/>
       <c r="B93" s="1" t="s">
         <v>337</v>
       </c>
@@ -6451,8 +6451,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="16"/>
+    <row r="94" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A94" s="19"/>
       <c r="B94" s="1" t="s">
         <v>338</v>
       </c>
@@ -6499,8 +6499,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="16"/>
+    <row r="95" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A95" s="19"/>
       <c r="B95" s="1" t="s">
         <v>340</v>
       </c>
@@ -6547,8 +6547,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="16"/>
+    <row r="96" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A96" s="19"/>
       <c r="B96" s="1" t="s">
         <v>341</v>
       </c>
@@ -6595,8 +6595,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="16"/>
+    <row r="97" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A97" s="19"/>
       <c r="B97" s="1" t="s">
         <v>344</v>
       </c>
@@ -6643,8 +6643,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="16"/>
+    <row r="98" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A98" s="19"/>
       <c r="B98" s="1" t="s">
         <v>349</v>
       </c>
@@ -6691,8 +6691,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="16" t="s">
+    <row r="99" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A99" s="19" t="s">
         <v>352</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -6741,8 +6741,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="16"/>
+    <row r="100" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A100" s="19"/>
       <c r="B100" s="1" t="s">
         <v>357</v>
       </c>
@@ -6789,8 +6789,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="16"/>
+    <row r="101" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A101" s="19"/>
       <c r="B101" s="1" t="s">
         <v>359</v>
       </c>
@@ -6837,8 +6837,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="16"/>
+    <row r="102" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A102" s="19"/>
       <c r="B102" s="1" t="s">
         <v>361</v>
       </c>
@@ -6885,8 +6885,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="16"/>
+    <row r="103" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A103" s="19"/>
       <c r="B103" s="1" t="s">
         <v>363</v>
       </c>
@@ -6933,8 +6933,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="16"/>
+    <row r="104" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A104" s="19"/>
       <c r="B104" s="1" t="s">
         <v>366</v>
       </c>
@@ -6981,8 +6981,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="16"/>
+    <row r="105" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A105" s="19"/>
       <c r="B105" s="1" t="s">
         <v>368</v>
       </c>
@@ -7029,8 +7029,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="16"/>
+    <row r="106" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A106" s="19"/>
       <c r="B106" s="1" t="s">
         <v>370</v>
       </c>
@@ -7077,8 +7077,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="16"/>
+    <row r="107" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A107" s="19"/>
       <c r="B107" s="1" t="s">
         <v>372</v>
       </c>
@@ -7125,8 +7125,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="16"/>
+    <row r="108" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A108" s="19"/>
       <c r="B108" s="1" t="s">
         <v>375</v>
       </c>
@@ -7173,8 +7173,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="16"/>
+    <row r="109" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A109" s="19"/>
       <c r="B109" s="1" t="s">
         <v>377</v>
       </c>
@@ -7221,8 +7221,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="16" t="s">
+    <row r="110" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A110" s="19" t="s">
         <v>380</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -7269,8 +7269,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="16"/>
+    <row r="111" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A111" s="19"/>
       <c r="B111" s="1" t="s">
         <v>383</v>
       </c>
@@ -7317,8 +7317,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="16"/>
+    <row r="112" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A112" s="19"/>
       <c r="B112" s="1" t="s">
         <v>385</v>
       </c>
@@ -7365,8 +7365,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="16"/>
+    <row r="113" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A113" s="19"/>
       <c r="B113" s="1" t="s">
         <v>388</v>
       </c>
@@ -7413,8 +7413,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="32.25" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="16"/>
+    <row r="114" spans="1:16" ht="32.6" x14ac:dyDescent="0.95">
+      <c r="A114" s="19"/>
       <c r="B114" s="1" t="s">
         <v>390</v>
       </c>
@@ -7461,11 +7461,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B119" s="21"/>
-      <c r="C119" s="21"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="21"/>
+    <row r="119" spans="1:16" ht="24.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="20"/>
+      <c r="E119" s="20"/>
       <c r="F119"/>
       <c r="G119"/>
       <c r="H119"/>
@@ -7480,6 +7480,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A34:A45"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="A27:A33"/>
+    <mergeCell ref="A5:A14"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A110:A114"/>
     <mergeCell ref="B119:E119"/>
     <mergeCell ref="A46:A56"/>
@@ -7488,14 +7496,6 @@
     <mergeCell ref="A72:A85"/>
     <mergeCell ref="A86:A98"/>
     <mergeCell ref="A99:A109"/>
-    <mergeCell ref="A34:A45"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A5:A14"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
